--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-135" windowWidth="20730" windowHeight="11700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25605" yWindow="-135" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="134">
   <si>
     <t>type</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Date of migration can not be in the future or before the start of the study</t>
   </si>
   <si>
-    <t>(.=&lt;today() and . &gt;date(date('2012-06-01')))</t>
-  </si>
-  <si>
     <t>FISHING</t>
   </si>
   <si>
@@ -406,6 +403,21 @@
   </si>
   <si>
     <t>KAKNAGA-UFIRA</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>processedByMirth</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>1=2</t>
+  </si>
+  <si>
+    <t>(.&lt;=today() and . &gt;date(date('2012-06-01')))</t>
   </si>
 </sst>
 </file>
@@ -1563,11 +1575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1782,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>82</v>
@@ -1793,16 +1805,16 @@
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>1</v>
@@ -1810,42 +1822,42 @@
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
@@ -1865,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1927,32 +1939,39 @@
     </row>
     <row r="16" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="2"/>
@@ -1962,7 +1981,7 @@
       <c r="G18" s="2"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="2"/>
@@ -1972,7 +1991,7 @@
       <c r="G19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1981,7 +2000,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1990,7 +2009,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1999,7 +2018,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2008,7 +2027,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2018,7 +2037,7 @@
       <c r="G24" s="2"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2027,7 +2046,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2036,7 +2055,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2045,7 +2064,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2054,7 +2073,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2063,7 +2082,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2072,7 +2091,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2082,7 +2101,7 @@
       <c r="G31" s="2"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2188,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2220,13 +2239,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,13 +2253,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2262,13 +2281,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2399,240 +2418,240 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="13">
         <v>2</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="13">
         <v>3</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="13">
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="C24" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="25605" yWindow="-135" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
   <si>
     <t>type</t>
   </si>
@@ -412,9 +412,6 @@
   </si>
   <si>
     <t>processed</t>
-  </si>
-  <si>
-    <t>1=2</t>
   </si>
   <si>
     <t>(.&lt;=today() and . &gt;date(date('2012-06-01')))</t>
@@ -1576,10 +1573,10 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1794,7 +1791,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>82</v>
@@ -1954,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>129</v>
       </c>
@@ -1967,11 +1964,11 @@
       <c r="D17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="2"/>
@@ -1981,7 +1978,7 @@
       <c r="G18" s="2"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="2"/>
@@ -1991,7 +1988,7 @@
       <c r="G19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -2000,7 +1997,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2009,7 +2006,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2018,7 +2015,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2027,7 +2024,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2037,7 +2034,7 @@
       <c r="G24" s="2"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2046,7 +2043,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2055,7 +2052,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2064,7 +2061,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2073,7 +2070,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2082,7 +2079,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2091,7 +2088,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2101,7 +2098,7 @@
       <c r="G31" s="2"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
   <si>
     <t>type</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Sababu ya Kuhama(Nyingine)</t>
   </si>
   <si>
-    <t>Reason for Out Migration(Other)</t>
-  </si>
-  <si>
     <t>MARITAL_CHANGE</t>
   </si>
   <si>
@@ -414,7 +411,16 @@
     <t>processed</t>
   </si>
   <si>
-    <t>(.&lt;=today() and . &gt;date(date('2012-06-01')))</t>
+    <t>What zone?</t>
+  </si>
+  <si>
+    <t>Change in marital status</t>
+  </si>
+  <si>
+    <t>Reason for Out Migration (Other)</t>
+  </si>
+  <si>
+    <t>(.&lt;=today())</t>
   </si>
 </sst>
 </file>
@@ -1573,10 +1579,10 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1785,7 @@
     </row>
     <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -1791,10 +1797,10 @@
         <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
@@ -1802,16 +1808,16 @@
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>1</v>
@@ -1819,42 +1825,42 @@
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I10" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
@@ -1874,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1905,13 +1911,16 @@
         <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1925,27 +1934,27 @@
         <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
@@ -1953,16 +1962,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M17" s="5" t="b">
         <v>1</v>
@@ -2236,13 +2245,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2250,13 +2259,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,13 +2273,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2278,13 +2287,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2292,13 +2301,13 @@
         <v>28</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2306,13 +2315,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2320,13 +2329,13 @@
         <v>28</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2334,13 +2343,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2348,13 +2357,13 @@
         <v>30</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2362,13 +2371,13 @@
         <v>30</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,13 +2385,13 @@
         <v>30</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2390,13 +2399,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,248 +2416,248 @@
         <v>888</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="13">
         <v>2</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="13">
         <v>3</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="13">
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="C24" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,24 +2869,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="144">
   <si>
     <t>type</t>
   </si>
@@ -421,6 +421,33 @@
   </si>
   <si>
     <t>(.&lt;=today())</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>openhds</t>
+  </si>
+  <si>
+    <t>OpenHDS preloaded info</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
   </si>
 </sst>
 </file>
@@ -479,12 +506,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -849,7 +882,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -888,6 +921,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,13 +1615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1714,34 +1753,29 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1783,268 +1817,304 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>70</v>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="4" t="b">
+      <c r="M10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K16" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="5" t="b">
+      <c r="M21" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="11"/>
@@ -2056,7 +2126,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2078,12 +2148,13 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2092,7 +2163,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2105,7 +2176,6 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -2115,7 +2185,6 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2125,7 +2194,6 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2146,62 +2214,101 @@
       <c r="G35" s="2"/>
       <c r="I35" s="3"/>
     </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="3"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="3"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="3"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I60" s="3"/>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="3"/>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I85" s="3"/>
     </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="I86" s="3"/>
+    </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
       <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-135" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="25605" yWindow="-135" windowWidth="20730" windowHeight="11700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>Last name</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat(${individualId},'_OMG_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2966,15 +2972,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2984,8 +2990,11 @@
       <c r="C1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -2994,6 +3003,9 @@
       </c>
       <c r="C2" t="s">
         <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-135" windowWidth="20730" windowHeight="11700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="25605" yWindow="-135" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>type</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Reason for Out Migration (Other)</t>
   </si>
   <si>
-    <t>(.&lt;=today())</t>
-  </si>
-  <si>
     <t>begin group</t>
   </si>
   <si>
@@ -454,12 +451,27 @@
   </si>
   <si>
     <t>concat(${individualId},'_OMG_',${fieldWorkerId})</t>
+  </si>
+  <si>
+    <t>earliestDate</t>
+  </si>
+  <si>
+    <t>Earliest migration date</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(.&lt;=today() and &gt;${earliestDate})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -888,7 +900,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -933,6 +945,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1621,13 +1636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1646,7 +1661,7 @@
     <col min="13" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1698,8 +1713,11 @@
       <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1719,7 +1737,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1739,7 +1757,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1759,62 +1777,60 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="18">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>1</v>
@@ -1823,61 +1839,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>37</v>
+      </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
       <c r="M8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>140</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="I10" s="4" t="b">
         <v>1</v>
@@ -1886,219 +1905,226 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="I12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="K17" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="I19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="I20" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M21" s="5" t="b">
+      <c r="M22" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
@@ -2111,28 +2137,29 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2154,16 +2181,16 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -2178,7 +2205,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2218,7 +2245,6 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -2248,6 +2274,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -2257,19 +2284,25 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I44" s="3"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="3"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="3"/>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I61" s="3"/>
@@ -2283,8 +2316,8 @@
     <row r="64" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I64" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="3"/>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I82" s="3"/>
@@ -2299,7 +2332,6 @@
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -2311,10 +2343,14 @@
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="3"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2974,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2991,7 +3027,7 @@
         <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -3005,7 +3041,7 @@
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -462,7 +462,7 @@
     <t>default</t>
   </si>
   <si>
-    <t>(.&lt;=today() and &gt;${earliestDate})</t>
+    <t>(.&lt;=today() and . &gt;${earliestDate})</t>
   </si>
 </sst>
 </file>
@@ -1639,10 +1639,10 @@
   <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="150">
   <si>
     <t>type</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>2014-06-01</t>
   </si>
   <si>
     <t>(.&lt;=today() and . &gt;${earliestDate})</t>
@@ -469,9 +472,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -947,7 +947,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
@@ -1658,7 +1658,10 @@
     <col min="9" max="10" width="10.875" style="5"/>
     <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
     <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="13" max="16" width="10.875" style="5"/>
+    <col min="17" max="17" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -1791,8 +1794,8 @@
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="18">
-        <v>41791</v>
+      <c r="R5" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -1946,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>81</v>

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>type</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>2014-06-01</t>
   </si>
   <si>
     <t>(.&lt;=today() and . &gt;${earliestDate})</t>
@@ -1639,10 +1636,10 @@
   <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1794,9 +1791,7 @@
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="18" t="s">
-        <v>148</v>
-      </c>
+      <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -1949,7 +1944,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>81</v>
